--- a/Code/Results/Cases/Case_2_85/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_85/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.66299779824828</v>
+        <v>12.21066472588013</v>
       </c>
       <c r="C2">
-        <v>15.12266779058523</v>
+        <v>8.530387320246627</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>13.66702493699855</v>
+        <v>20.59108797255688</v>
       </c>
       <c r="F2">
-        <v>32.21742193496662</v>
+        <v>39.09172823998971</v>
       </c>
       <c r="G2">
-        <v>29.76471631446307</v>
+        <v>29.12399235107401</v>
       </c>
       <c r="H2">
-        <v>9.450091267773306</v>
+        <v>13.98746694014338</v>
       </c>
       <c r="I2">
-        <v>12.99649401673435</v>
+        <v>19.50184430017446</v>
       </c>
       <c r="J2">
-        <v>4.459435575436722</v>
+        <v>7.75506064126036</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.06279051114104</v>
+        <v>19.01571478238296</v>
       </c>
       <c r="N2">
-        <v>11.22485370620819</v>
+        <v>17.13711488502166</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.35028668722452</v>
+        <v>11.66059121977759</v>
       </c>
       <c r="C3">
-        <v>14.12060641494365</v>
+        <v>7.99166715840295</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>13.29869741266538</v>
+        <v>20.57844340187529</v>
       </c>
       <c r="F3">
-        <v>30.93965509358372</v>
+        <v>38.97851533948202</v>
       </c>
       <c r="G3">
-        <v>28.30341721451585</v>
+        <v>28.90406832861767</v>
       </c>
       <c r="H3">
-        <v>9.330235428795856</v>
+        <v>14.01962747313627</v>
       </c>
       <c r="I3">
-        <v>12.97264537312111</v>
+        <v>19.58204174299138</v>
       </c>
       <c r="J3">
-        <v>4.528581707434357</v>
+        <v>7.777561774125193</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.14507034945441</v>
+        <v>18.84347314560693</v>
       </c>
       <c r="N3">
-        <v>11.44432983728336</v>
+        <v>17.20118367077483</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.49866645832849</v>
+        <v>11.3111879825029</v>
       </c>
       <c r="C4">
-        <v>13.47185252852413</v>
+        <v>7.640567978458895</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>13.07450775370729</v>
+        <v>20.57383100254083</v>
       </c>
       <c r="F4">
-        <v>30.1597056864609</v>
+        <v>38.91993182275736</v>
       </c>
       <c r="G4">
-        <v>27.41177096226216</v>
+        <v>28.78145858194685</v>
       </c>
       <c r="H4">
-        <v>9.266117933859007</v>
+        <v>14.04279225061137</v>
       </c>
       <c r="I4">
-        <v>12.97555835057928</v>
+        <v>19.63663790764872</v>
       </c>
       <c r="J4">
-        <v>4.572023356792794</v>
+        <v>7.792058413534594</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.5624903415429</v>
+        <v>18.7405308983133</v>
       </c>
       <c r="N4">
-        <v>11.5819216465243</v>
+        <v>17.24239196273313</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.14008038420328</v>
+        <v>11.16607899881047</v>
       </c>
       <c r="C5">
-        <v>13.19900440252435</v>
+        <v>7.492382370065542</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12.98374285778222</v>
+        <v>20.57274621609064</v>
       </c>
       <c r="F5">
-        <v>29.84343331341119</v>
+        <v>38.89882139030694</v>
       </c>
       <c r="G5">
-        <v>27.05031363919622</v>
+        <v>28.7346673238357</v>
       </c>
       <c r="H5">
-        <v>9.242299039509202</v>
+        <v>14.05308864210909</v>
       </c>
       <c r="I5">
-        <v>12.98092181630464</v>
+        <v>19.66022640801038</v>
       </c>
       <c r="J5">
-        <v>4.589983609908848</v>
+        <v>7.798137645915915</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.32052460940393</v>
+        <v>18.69932873497297</v>
       </c>
       <c r="N5">
-        <v>11.6387297906204</v>
+        <v>17.25965629369056</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.07983816334698</v>
+        <v>11.14182582389331</v>
       </c>
       <c r="C6">
-        <v>13.15318481319092</v>
+        <v>7.467467727736671</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12.9687103088181</v>
+        <v>20.57261415395496</v>
       </c>
       <c r="F6">
-        <v>29.79102351120843</v>
+        <v>38.89548324348378</v>
       </c>
       <c r="G6">
-        <v>26.99042389764755</v>
+        <v>28.72709060452253</v>
       </c>
       <c r="H6">
-        <v>9.238481175489481</v>
+        <v>14.05484999394166</v>
       </c>
       <c r="I6">
-        <v>12.98205767479733</v>
+        <v>19.6642240132883</v>
       </c>
       <c r="J6">
-        <v>4.592981715373711</v>
+        <v>7.799157485670078</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.28007908492067</v>
+        <v>18.69253343915911</v>
       </c>
       <c r="N6">
-        <v>11.64820808022111</v>
+        <v>17.26255154973789</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.49387727625864</v>
+        <v>11.30924172859712</v>
       </c>
       <c r="C7">
-        <v>13.4682071884128</v>
+        <v>7.638590181856324</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>13.07328112530861</v>
+        <v>20.57381315177275</v>
       </c>
       <c r="F7">
-        <v>30.1554334335891</v>
+        <v>38.91963591698652</v>
       </c>
       <c r="G7">
-        <v>27.40688785536066</v>
+        <v>28.7808146315914</v>
       </c>
       <c r="H7">
-        <v>9.265787453343975</v>
+        <v>14.04292764726633</v>
       </c>
       <c r="I7">
-        <v>12.97561408966472</v>
+        <v>19.63695061282379</v>
       </c>
       <c r="J7">
-        <v>4.572264520400037</v>
+        <v>7.792139704148174</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.55924521107546</v>
+        <v>18.73997215280965</v>
       </c>
       <c r="N7">
-        <v>11.58268475756552</v>
+        <v>17.2426228840818</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.21979415555997</v>
+        <v>12.02353385423565</v>
       </c>
       <c r="C8">
-        <v>14.78407030437539</v>
+        <v>8.348853792971669</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>13.5396763634328</v>
+        <v>20.58607556176139</v>
       </c>
       <c r="F8">
-        <v>31.77612309978559</v>
+        <v>39.0504336766458</v>
       </c>
       <c r="G8">
-        <v>29.25997112685197</v>
+        <v>29.04561557186657</v>
       </c>
       <c r="H8">
-        <v>9.406756423715654</v>
+        <v>13.99784475455236</v>
       </c>
       <c r="I8">
-        <v>12.98448450099837</v>
+        <v>19.52838124546256</v>
       </c>
       <c r="J8">
-        <v>4.483078518434056</v>
+        <v>7.762678039888056</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.75045376746395</v>
+        <v>18.95576595419515</v>
       </c>
       <c r="N8">
-        <v>11.2999572040297</v>
+        <v>17.15881859484578</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.24615503559178</v>
+        <v>13.32407251961459</v>
       </c>
       <c r="C9">
-        <v>17.10176689509862</v>
+        <v>9.580583026158397</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>14.46577157000772</v>
+        <v>20.63501116161179</v>
       </c>
       <c r="F9">
-        <v>34.97531391541672</v>
+        <v>39.39286050111075</v>
       </c>
       <c r="G9">
-        <v>32.92051524823029</v>
+        <v>29.66094947843019</v>
       </c>
       <c r="H9">
-        <v>9.761352702591369</v>
+        <v>13.936682253188</v>
       </c>
       <c r="I9">
-        <v>13.15166974239757</v>
+        <v>19.3582430147829</v>
       </c>
       <c r="J9">
-        <v>4.31554473704462</v>
+        <v>7.710281727755159</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>18.94286223848177</v>
+        <v>19.3994618106582</v>
       </c>
       <c r="N9">
-        <v>10.76676948289624</v>
+        <v>17.00924831225627</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.25696305304731</v>
+        <v>14.20990307078912</v>
       </c>
       <c r="C10">
-        <v>18.64916016293921</v>
+        <v>10.38773724227614</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>15.14828157486808</v>
+        <v>20.68596305629316</v>
       </c>
       <c r="F10">
-        <v>37.32163689900928</v>
+        <v>39.69555373978393</v>
       </c>
       <c r="G10">
-        <v>35.6081952330731</v>
+        <v>30.16773095172843</v>
       </c>
       <c r="H10">
-        <v>10.07325979203466</v>
+        <v>13.90851307908238</v>
       </c>
       <c r="I10">
-        <v>13.37977207113398</v>
+        <v>19.25968989596816</v>
       </c>
       <c r="J10">
-        <v>4.196258449809863</v>
+        <v>7.675030270434299</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>20.70062791898835</v>
+        <v>19.73546718626993</v>
       </c>
       <c r="N10">
-        <v>10.38618531848217</v>
+        <v>16.90826935687071</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.12692611632596</v>
+        <v>14.59637134260016</v>
       </c>
       <c r="C11">
-        <v>19.32055612414045</v>
+        <v>10.73382234722357</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>15.45839039704489</v>
+        <v>20.71235459101725</v>
       </c>
       <c r="F11">
-        <v>38.38573471523596</v>
+        <v>39.84401643385373</v>
       </c>
       <c r="G11">
-        <v>36.8284158153981</v>
+        <v>30.40920862286668</v>
       </c>
       <c r="H11">
-        <v>10.22703596928686</v>
+        <v>13.8993680333964</v>
       </c>
       <c r="I11">
-        <v>13.50924209230225</v>
+        <v>19.2206764602247</v>
       </c>
       <c r="J11">
-        <v>4.142653878261346</v>
+        <v>7.659690557671786</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>21.46183358643061</v>
+        <v>19.88995820374026</v>
       </c>
       <c r="N11">
-        <v>10.21505465851194</v>
+        <v>16.86424637181249</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.45004312702466</v>
+        <v>14.74025193281901</v>
       </c>
       <c r="C12">
-        <v>19.57022881060952</v>
+        <v>10.86185364935779</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>15.57571217268903</v>
+        <v>20.72280596064698</v>
       </c>
       <c r="F12">
-        <v>38.78809132905106</v>
+        <v>39.90175015473029</v>
       </c>
       <c r="G12">
-        <v>37.29006846326677</v>
+        <v>30.50213682105981</v>
       </c>
       <c r="H12">
-        <v>10.28703259882073</v>
+        <v>13.89643462755601</v>
       </c>
       <c r="I12">
-        <v>13.56218665560772</v>
+        <v>19.20674605146117</v>
       </c>
       <c r="J12">
-        <v>4.122435531727333</v>
+        <v>7.653981393161915</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>21.74467792936289</v>
+        <v>19.94864989441476</v>
       </c>
       <c r="N12">
-        <v>10.15050409569221</v>
+        <v>16.84784961761227</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.38073316941481</v>
+        <v>14.70937570707849</v>
       </c>
       <c r="C13">
-        <v>19.51665880310453</v>
+        <v>10.834414131134</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>15.55045047729977</v>
+        <v>20.72053480236037</v>
       </c>
       <c r="F13">
-        <v>38.7014643898242</v>
+        <v>39.88924939598203</v>
       </c>
       <c r="G13">
-        <v>37.19066213982533</v>
+        <v>30.48205841722339</v>
       </c>
       <c r="H13">
-        <v>10.27403187061595</v>
+        <v>13.89704280496128</v>
       </c>
       <c r="I13">
-        <v>13.55060646576987</v>
+        <v>19.20970861581007</v>
       </c>
       <c r="J13">
-        <v>4.126786570694469</v>
+        <v>7.655206539493327</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>21.6840009252389</v>
+        <v>19.93600191040917</v>
       </c>
       <c r="N13">
-        <v>10.16439553151767</v>
+        <v>16.85136879493138</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.1536350849668</v>
+        <v>14.60825840217258</v>
       </c>
       <c r="C14">
-        <v>19.34118780046805</v>
+        <v>10.74441609900577</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>15.46804500900251</v>
+        <v>20.71320529080581</v>
       </c>
       <c r="F14">
-        <v>38.41884924016383</v>
+        <v>39.84873608159169</v>
       </c>
       <c r="G14">
-        <v>36.86640474641158</v>
+        <v>30.41682461654827</v>
       </c>
       <c r="H14">
-        <v>10.23193623833816</v>
+        <v>13.89911607542659</v>
       </c>
       <c r="I14">
-        <v>13.51351813744518</v>
+        <v>19.21951346350947</v>
       </c>
       <c r="J14">
-        <v>4.140988974001441</v>
+        <v>7.659218866852872</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>21.48521104980033</v>
+        <v>19.89478327720704</v>
       </c>
       <c r="N14">
-        <v>10.20973917918456</v>
+        <v>16.86289192093204</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.01371166440918</v>
+        <v>14.54599739114952</v>
       </c>
       <c r="C15">
-        <v>19.23311486342111</v>
+        <v>10.6888962424235</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>15.41755352370461</v>
+        <v>20.7087751863778</v>
       </c>
       <c r="F15">
-        <v>38.24565926573625</v>
+        <v>39.82411663141377</v>
       </c>
       <c r="G15">
-        <v>36.66773258562655</v>
+        <v>30.37705787494481</v>
       </c>
       <c r="H15">
-        <v>10.20638293990154</v>
+        <v>13.90045504067418</v>
       </c>
       <c r="I15">
-        <v>13.49131697958905</v>
+        <v>19.22562920321002</v>
       </c>
       <c r="J15">
-        <v>4.149698403787718</v>
+        <v>7.661689496557213</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>21.36274582857407</v>
+        <v>19.86955894478398</v>
       </c>
       <c r="N15">
-        <v>10.23754535898452</v>
+        <v>16.86998578710965</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.19921803410358</v>
+        <v>14.18430605518867</v>
       </c>
       <c r="C16">
-        <v>18.60463729588161</v>
+        <v>10.36469611099208</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>15.12800268825296</v>
+        <v>20.68430258235398</v>
       </c>
       <c r="F16">
-        <v>37.25201788628752</v>
+        <v>39.68606515128992</v>
       </c>
       <c r="G16">
-        <v>35.52839432076587</v>
+        <v>30.15216258459393</v>
       </c>
       <c r="H16">
-        <v>10.06345411972027</v>
+        <v>13.9091847403222</v>
       </c>
       <c r="I16">
-        <v>13.37184722870727</v>
+        <v>19.26235715604489</v>
       </c>
       <c r="J16">
-        <v>4.199773705667677</v>
+        <v>7.67604672776335</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>20.65011813679752</v>
+        <v>19.72539986007092</v>
       </c>
       <c r="N16">
-        <v>10.39740641328835</v>
+        <v>16.91118474484379</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.68816861976889</v>
+        <v>13.95812222545018</v>
       </c>
       <c r="C17">
-        <v>18.21082964736528</v>
+        <v>10.16041381044151</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>14.95023400932953</v>
+        <v>20.67010927739535</v>
       </c>
       <c r="F17">
-        <v>36.64150766982748</v>
+        <v>39.60410919514023</v>
       </c>
       <c r="G17">
-        <v>34.82875080134987</v>
+        <v>30.01693776935132</v>
       </c>
       <c r="H17">
-        <v>9.978856322177842</v>
+        <v>13.91548141279504</v>
       </c>
       <c r="I17">
-        <v>13.30530003550714</v>
+        <v>19.28638351468798</v>
       </c>
       <c r="J17">
-        <v>4.23065232155496</v>
+        <v>7.6850324318014</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>20.20318622592399</v>
+        <v>19.63734992438202</v>
       </c>
       <c r="N17">
-        <v>10.49596384740729</v>
+        <v>16.93694798745776</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.3900055842221</v>
+        <v>13.82647870929384</v>
       </c>
       <c r="C18">
-        <v>17.98125394100294</v>
+        <v>10.0409299793639</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>14.84795413555044</v>
+        <v>20.66224841042378</v>
       </c>
       <c r="F18">
-        <v>36.29005546635755</v>
+        <v>39.55798587121732</v>
       </c>
       <c r="G18">
-        <v>34.4261056150531</v>
+        <v>29.94019528102434</v>
       </c>
       <c r="H18">
-        <v>9.93131364079437</v>
+        <v>13.91944835720898</v>
       </c>
       <c r="I18">
-        <v>13.26943071673409</v>
+        <v>19.30075016855831</v>
       </c>
       <c r="J18">
-        <v>4.248475860140802</v>
+        <v>7.690266343636165</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>19.94250006590494</v>
+        <v>19.58686313268712</v>
       </c>
       <c r="N18">
-        <v>10.55284178573552</v>
+        <v>16.95194644420033</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.28832430794409</v>
+        <v>13.78164362429949</v>
       </c>
       <c r="C19">
-        <v>17.90299355366948</v>
+        <v>10.00013342443622</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>14.81332035687642</v>
+        <v>20.65963898675836</v>
       </c>
       <c r="F19">
-        <v>36.17101263081349</v>
+        <v>39.54254472126271</v>
       </c>
       <c r="G19">
-        <v>34.28974111736417</v>
+        <v>29.91439199576761</v>
       </c>
       <c r="H19">
-        <v>9.915406439181924</v>
+        <v>13.92085073104381</v>
       </c>
       <c r="I19">
-        <v>13.2576924884076</v>
+        <v>19.30570827754951</v>
       </c>
       <c r="J19">
-        <v>4.254521838559806</v>
+        <v>7.692049733180749</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>19.85361059602959</v>
+        <v>19.56979759324841</v>
       </c>
       <c r="N19">
-        <v>10.57213339362974</v>
+        <v>16.95705563894768</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.74300672694631</v>
+        <v>13.98236087870636</v>
       </c>
       <c r="C20">
-        <v>18.25306792915692</v>
+        <v>10.18236549283213</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>14.96916155429608</v>
+        <v>20.67158887787182</v>
       </c>
       <c r="F20">
-        <v>36.70652998235285</v>
+        <v>39.61272867565398</v>
       </c>
       <c r="G20">
-        <v>34.90325350121056</v>
+        <v>30.03122615797671</v>
       </c>
       <c r="H20">
-        <v>9.987746025839948</v>
+        <v>13.91477537232814</v>
       </c>
       <c r="I20">
-        <v>13.3121333684353</v>
+        <v>19.28376917457085</v>
       </c>
       <c r="J20">
-        <v>4.227358822614546</v>
+        <v>7.684069105257683</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>20.25113701671854</v>
+        <v>19.64670705833272</v>
       </c>
       <c r="N20">
-        <v>10.48545278980132</v>
+        <v>16.93418681368833</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.22050981274</v>
+        <v>14.63802661970051</v>
       </c>
       <c r="C21">
-        <v>19.39285103131329</v>
+        <v>10.77093268159735</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>15.49225285967308</v>
+        <v>20.71534576895667</v>
       </c>
       <c r="F21">
-        <v>38.50187697545611</v>
+        <v>39.86059501654938</v>
       </c>
       <c r="G21">
-        <v>36.96165850259909</v>
+        <v>30.43594575409625</v>
       </c>
       <c r="H21">
-        <v>10.24425240389507</v>
+        <v>13.89849271724709</v>
       </c>
       <c r="I21">
-        <v>13.52430385630134</v>
+        <v>19.21661060963981</v>
       </c>
       <c r="J21">
-        <v>4.136815316908359</v>
+        <v>7.658037648353895</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>21.54374625914673</v>
+        <v>19.90688542232003</v>
       </c>
       <c r="N21">
-        <v>10.19641406929771</v>
+        <v>16.85949987881868</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.14937209192848</v>
+        <v>15.05213189821266</v>
       </c>
       <c r="C22">
-        <v>20.11118199062229</v>
+        <v>11.13797648765519</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>15.83346660412271</v>
+        <v>20.74660750482243</v>
       </c>
       <c r="F22">
-        <v>39.67176354614186</v>
+        <v>40.03139769953165</v>
       </c>
       <c r="G22">
-        <v>38.30453349683753</v>
+        <v>30.70907110772034</v>
       </c>
       <c r="H22">
-        <v>10.42220774832451</v>
+        <v>13.89093884935883</v>
       </c>
       <c r="I22">
-        <v>13.6858973161185</v>
+        <v>19.17763586657484</v>
       </c>
       <c r="J22">
-        <v>4.078101975799864</v>
+        <v>7.641605212111813</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>22.35708011702063</v>
+        <v>20.07800890019353</v>
       </c>
       <c r="N22">
-        <v>10.00896765258399</v>
+        <v>16.81228295886792</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.65694408645058</v>
+        <v>14.83246180561841</v>
       </c>
       <c r="C23">
-        <v>19.73018990040138</v>
+        <v>10.94368702625946</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>15.65142993426293</v>
+        <v>20.72968038006026</v>
       </c>
       <c r="F23">
-        <v>39.04771634614418</v>
+        <v>39.93944315513389</v>
       </c>
       <c r="G23">
-        <v>37.58803795471484</v>
+        <v>30.56254021582267</v>
       </c>
       <c r="H23">
-        <v>10.32626749170215</v>
+        <v>13.89468737037344</v>
       </c>
       <c r="I23">
-        <v>13.59748335815882</v>
+        <v>19.19798542580867</v>
       </c>
       <c r="J23">
-        <v>4.109401101229116</v>
+        <v>7.650322543817227</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>21.92582695672257</v>
+        <v>19.98659344143348</v>
       </c>
       <c r="N23">
-        <v>10.10888978627893</v>
+        <v>16.83733796167933</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.71822798898154</v>
+        <v>13.97140758303713</v>
       </c>
       <c r="C24">
-        <v>18.233981885082</v>
+        <v>10.17244748976969</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>14.96060465061629</v>
+        <v>20.67091901861958</v>
       </c>
       <c r="F24">
-        <v>36.67713482276511</v>
+        <v>39.60882870885379</v>
       </c>
       <c r="G24">
-        <v>34.86957210377285</v>
+        <v>30.02476325567601</v>
       </c>
       <c r="H24">
-        <v>9.983723588303253</v>
+        <v>13.9150934927304</v>
       </c>
       <c r="I24">
-        <v>13.30903659253643</v>
+        <v>19.28494939376904</v>
       </c>
       <c r="J24">
-        <v>4.228847591235748</v>
+        <v>7.684504413601188</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>20.22947011916519</v>
+        <v>19.64247627619285</v>
       </c>
       <c r="N24">
-        <v>10.49020416369166</v>
+        <v>16.9354345582575</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.46522712175313</v>
+        <v>12.9839426928405</v>
       </c>
       <c r="C25">
-        <v>16.50243578183786</v>
+        <v>9.264579247254993</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>14.2145468563251</v>
+        <v>20.61912469962488</v>
       </c>
       <c r="F25">
-        <v>34.1095538100959</v>
+        <v>39.29114386516326</v>
       </c>
       <c r="G25">
-        <v>31.92954920237141</v>
+        <v>29.48457581394294</v>
       </c>
       <c r="H25">
-        <v>9.656654475575744</v>
+        <v>13.95029438193905</v>
       </c>
       <c r="I25">
-        <v>13.08894150753298</v>
+        <v>19.39965220366695</v>
       </c>
       <c r="J25">
-        <v>4.360147297800351</v>
+        <v>7.723884146277543</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>18.35604712477186</v>
+        <v>19.2774871610418</v>
       </c>
       <c r="N25">
-        <v>10.90891811268256</v>
+        <v>17.04813959143857</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_85/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_85/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.21066472588013</v>
+        <v>19.66299779824829</v>
       </c>
       <c r="C2">
-        <v>8.530387320246627</v>
+        <v>15.12266779058522</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>20.59108797255688</v>
+        <v>13.66702493699846</v>
       </c>
       <c r="F2">
-        <v>39.09172823998971</v>
+        <v>32.21742193496663</v>
       </c>
       <c r="G2">
-        <v>29.12399235107401</v>
+        <v>29.76471631446314</v>
       </c>
       <c r="H2">
-        <v>13.98746694014338</v>
+        <v>9.450091267773306</v>
       </c>
       <c r="I2">
-        <v>19.50184430017446</v>
+        <v>12.99649401673439</v>
       </c>
       <c r="J2">
-        <v>7.75506064126036</v>
+        <v>4.45943557543659</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>19.01571478238296</v>
+        <v>17.06279051114102</v>
       </c>
       <c r="N2">
-        <v>17.13711488502166</v>
+        <v>11.22485370620826</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.66059121977759</v>
+        <v>18.35028668722451</v>
       </c>
       <c r="C3">
-        <v>7.99166715840295</v>
+        <v>14.12060641494377</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>20.57844340187529</v>
+        <v>13.29869741266532</v>
       </c>
       <c r="F3">
-        <v>38.97851533948202</v>
+        <v>30.93965509358378</v>
       </c>
       <c r="G3">
-        <v>28.90406832861767</v>
+        <v>28.30341721451591</v>
       </c>
       <c r="H3">
-        <v>14.01962747313627</v>
+        <v>9.330235428795875</v>
       </c>
       <c r="I3">
-        <v>19.58204174299138</v>
+        <v>12.97264537312118</v>
       </c>
       <c r="J3">
-        <v>7.777561774125193</v>
+        <v>4.52858170743429</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>18.84347314560693</v>
+        <v>16.14507034945439</v>
       </c>
       <c r="N3">
-        <v>17.20118367077483</v>
+        <v>11.44432983728339</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.3111879825029</v>
+        <v>17.49866645832858</v>
       </c>
       <c r="C4">
-        <v>7.640567978458895</v>
+        <v>13.4718525285242</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>20.57383100254083</v>
+        <v>13.07450775370732</v>
       </c>
       <c r="F4">
-        <v>38.91993182275736</v>
+        <v>30.15970568646085</v>
       </c>
       <c r="G4">
-        <v>28.78145858194685</v>
+        <v>27.41177096226204</v>
       </c>
       <c r="H4">
-        <v>14.04279225061137</v>
+        <v>9.266117933858972</v>
       </c>
       <c r="I4">
-        <v>19.63663790764872</v>
+        <v>12.9755583505792</v>
       </c>
       <c r="J4">
-        <v>7.792058413534594</v>
+        <v>4.572023356792726</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>18.7405308983133</v>
+        <v>15.56249034154287</v>
       </c>
       <c r="N4">
-        <v>17.24239196273313</v>
+        <v>11.58192164652426</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.16607899881047</v>
+        <v>17.14008038420327</v>
       </c>
       <c r="C5">
-        <v>7.492382370065542</v>
+        <v>13.19900440252423</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>20.57274621609064</v>
+        <v>12.98374285778209</v>
       </c>
       <c r="F5">
-        <v>38.89882139030694</v>
+        <v>29.84343331341133</v>
       </c>
       <c r="G5">
-        <v>28.7346673238357</v>
+        <v>27.05031363919631</v>
       </c>
       <c r="H5">
-        <v>14.05308864210909</v>
+        <v>9.242299039509289</v>
       </c>
       <c r="I5">
-        <v>19.66022640801038</v>
+        <v>12.98092181630471</v>
       </c>
       <c r="J5">
-        <v>7.798137645915915</v>
+        <v>4.589983609908781</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>18.69932873497297</v>
+        <v>15.32052460940392</v>
       </c>
       <c r="N5">
-        <v>17.25965629369056</v>
+        <v>11.63872979062043</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.14182582389331</v>
+        <v>17.07983816334689</v>
       </c>
       <c r="C6">
-        <v>7.467467727736671</v>
+        <v>13.15318481319102</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>20.57261415395496</v>
+        <v>12.96871030881814</v>
       </c>
       <c r="F6">
-        <v>38.89548324348378</v>
+        <v>29.79102351120847</v>
       </c>
       <c r="G6">
-        <v>28.72709060452253</v>
+        <v>26.9904238976476</v>
       </c>
       <c r="H6">
-        <v>14.05484999394166</v>
+        <v>9.23848117548958</v>
       </c>
       <c r="I6">
-        <v>19.6642240132883</v>
+        <v>12.98205767479745</v>
       </c>
       <c r="J6">
-        <v>7.799157485670078</v>
+        <v>4.592981715373778</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>18.69253343915911</v>
+        <v>15.28007908492067</v>
       </c>
       <c r="N6">
-        <v>17.26255154973789</v>
+        <v>11.64820808022121</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.30924172859712</v>
+        <v>17.49387727625859</v>
       </c>
       <c r="C7">
-        <v>7.638590181856324</v>
+        <v>13.46820718841282</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>20.57381315177275</v>
+        <v>13.07328112530857</v>
       </c>
       <c r="F7">
-        <v>38.91963591698652</v>
+        <v>30.1554334335891</v>
       </c>
       <c r="G7">
-        <v>28.7808146315914</v>
+        <v>27.40688785536067</v>
       </c>
       <c r="H7">
-        <v>14.04292764726633</v>
+        <v>9.265787453343965</v>
       </c>
       <c r="I7">
-        <v>19.63695061282379</v>
+        <v>12.97561408966477</v>
       </c>
       <c r="J7">
-        <v>7.792139704148174</v>
+        <v>4.572264520399969</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>18.73997215280965</v>
+        <v>15.55924521107545</v>
       </c>
       <c r="N7">
-        <v>17.2426228840818</v>
+        <v>11.58268475756552</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.02353385423565</v>
+        <v>19.21979415555996</v>
       </c>
       <c r="C8">
-        <v>8.348853792971669</v>
+        <v>14.78407030437539</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>20.58607556176139</v>
+        <v>13.5396763634328</v>
       </c>
       <c r="F8">
-        <v>39.0504336766458</v>
+        <v>31.77612309978566</v>
       </c>
       <c r="G8">
-        <v>29.04561557186657</v>
+        <v>29.25997112685208</v>
       </c>
       <c r="H8">
-        <v>13.99784475455236</v>
+        <v>9.406756423715706</v>
       </c>
       <c r="I8">
-        <v>19.52838124546256</v>
+        <v>12.98448450099849</v>
       </c>
       <c r="J8">
-        <v>7.762678039888056</v>
+        <v>4.483078518434121</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>18.95576595419515</v>
+        <v>16.75045376746396</v>
       </c>
       <c r="N8">
-        <v>17.15881859484578</v>
+        <v>11.29995720402976</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.32407251961459</v>
+        <v>22.24615503559177</v>
       </c>
       <c r="C9">
-        <v>9.580583026158397</v>
+        <v>17.10176689509846</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>20.63501116161179</v>
+        <v>14.46577157000771</v>
       </c>
       <c r="F9">
-        <v>39.39286050111075</v>
+        <v>34.97531391541676</v>
       </c>
       <c r="G9">
-        <v>29.66094947843019</v>
+        <v>32.92051524823032</v>
       </c>
       <c r="H9">
-        <v>13.936682253188</v>
+        <v>9.761352702591486</v>
       </c>
       <c r="I9">
-        <v>19.3582430147829</v>
+        <v>13.15166974239763</v>
       </c>
       <c r="J9">
-        <v>7.710281727755159</v>
+        <v>4.31554473704462</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>19.3994618106582</v>
+        <v>18.94286223848173</v>
       </c>
       <c r="N9">
-        <v>17.00924831225627</v>
+        <v>10.76676948289627</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.20990307078912</v>
+        <v>24.25696305304722</v>
       </c>
       <c r="C10">
-        <v>10.38773724227614</v>
+        <v>18.64916016293915</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>20.68596305629316</v>
+        <v>15.14828157486815</v>
       </c>
       <c r="F10">
-        <v>39.69555373978393</v>
+        <v>37.32163689900933</v>
       </c>
       <c r="G10">
-        <v>30.16773095172843</v>
+        <v>35.608195233073</v>
       </c>
       <c r="H10">
-        <v>13.90851307908238</v>
+        <v>10.07325979203469</v>
       </c>
       <c r="I10">
-        <v>19.25968989596816</v>
+        <v>13.37977207113406</v>
       </c>
       <c r="J10">
-        <v>7.675030270434299</v>
+        <v>4.196258449809897</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>19.73546718626993</v>
+        <v>20.7006279189883</v>
       </c>
       <c r="N10">
-        <v>16.90826935687071</v>
+        <v>10.38618531848228</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.59637134260016</v>
+        <v>25.12692611632594</v>
       </c>
       <c r="C11">
-        <v>10.73382234722357</v>
+        <v>19.32055612414058</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>20.71235459101725</v>
+        <v>15.45839039704483</v>
       </c>
       <c r="F11">
-        <v>39.84401643385373</v>
+        <v>38.38573471523596</v>
       </c>
       <c r="G11">
-        <v>30.40920862286668</v>
+        <v>36.82841581539812</v>
       </c>
       <c r="H11">
-        <v>13.8993680333964</v>
+        <v>10.22703596928687</v>
       </c>
       <c r="I11">
-        <v>19.2206764602247</v>
+        <v>13.50924209230228</v>
       </c>
       <c r="J11">
-        <v>7.659690557671786</v>
+        <v>4.142653878261279</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>19.88995820374026</v>
+        <v>21.46183358643064</v>
       </c>
       <c r="N11">
-        <v>16.86424637181249</v>
+        <v>10.21505465851194</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.74025193281901</v>
+        <v>25.45004312702476</v>
       </c>
       <c r="C12">
-        <v>10.86185364935779</v>
+        <v>19.57022881060965</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>20.72280596064698</v>
+        <v>15.57571217268918</v>
       </c>
       <c r="F12">
-        <v>39.90175015473029</v>
+        <v>38.78809132905105</v>
       </c>
       <c r="G12">
-        <v>30.50213682105981</v>
+        <v>37.29006846326682</v>
       </c>
       <c r="H12">
-        <v>13.89643462755601</v>
+        <v>10.28703259882069</v>
       </c>
       <c r="I12">
-        <v>19.20674605146117</v>
+        <v>13.56218665560765</v>
       </c>
       <c r="J12">
-        <v>7.653981393161915</v>
+        <v>4.122435531727366</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>19.94864989441476</v>
+        <v>21.74467792936284</v>
       </c>
       <c r="N12">
-        <v>16.84784961761227</v>
+        <v>10.15050409569214</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.70937570707849</v>
+        <v>25.38073316941469</v>
       </c>
       <c r="C13">
-        <v>10.834414131134</v>
+        <v>19.51665880310458</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>20.72053480236037</v>
+        <v>15.5504504772997</v>
       </c>
       <c r="F13">
-        <v>39.88924939598203</v>
+        <v>38.70146438982422</v>
       </c>
       <c r="G13">
-        <v>30.48205841722339</v>
+        <v>37.19066213982543</v>
       </c>
       <c r="H13">
-        <v>13.89704280496128</v>
+        <v>10.27403187061598</v>
       </c>
       <c r="I13">
-        <v>19.20970861581007</v>
+        <v>13.55060646576994</v>
       </c>
       <c r="J13">
-        <v>7.655206539493327</v>
+        <v>4.126786570694436</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>19.93600191040917</v>
+        <v>21.68400092523891</v>
       </c>
       <c r="N13">
-        <v>16.85136879493138</v>
+        <v>10.1643955315176</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.60825840217258</v>
+        <v>25.1536350849668</v>
       </c>
       <c r="C14">
-        <v>10.74441609900577</v>
+        <v>19.34118780046789</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>20.71320529080581</v>
+        <v>15.46804500900238</v>
       </c>
       <c r="F14">
-        <v>39.84873608159169</v>
+        <v>38.41884924016378</v>
       </c>
       <c r="G14">
-        <v>30.41682461654827</v>
+        <v>36.86640474641147</v>
       </c>
       <c r="H14">
-        <v>13.89911607542659</v>
+        <v>10.23193623833817</v>
       </c>
       <c r="I14">
-        <v>19.21951346350947</v>
+        <v>13.51351813744518</v>
       </c>
       <c r="J14">
-        <v>7.659218866852872</v>
+        <v>4.140988974001437</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>19.89478327720704</v>
+        <v>21.48521104980038</v>
       </c>
       <c r="N14">
-        <v>16.86289192093204</v>
+        <v>10.20973917918456</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.54599739114952</v>
+        <v>25.01371166440924</v>
       </c>
       <c r="C15">
-        <v>10.6888962424235</v>
+        <v>19.23311486342108</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>20.7087751863778</v>
+        <v>15.41755352370456</v>
       </c>
       <c r="F15">
-        <v>39.82411663141377</v>
+        <v>38.24565926573627</v>
       </c>
       <c r="G15">
-        <v>30.37705787494481</v>
+        <v>36.66773258562665</v>
       </c>
       <c r="H15">
-        <v>13.90045504067418</v>
+        <v>10.20638293990154</v>
       </c>
       <c r="I15">
-        <v>19.22562920321002</v>
+        <v>13.49131697958908</v>
       </c>
       <c r="J15">
-        <v>7.661689496557213</v>
+        <v>4.149698403787651</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>19.86955894478398</v>
+        <v>21.36274582857409</v>
       </c>
       <c r="N15">
-        <v>16.86998578710965</v>
+        <v>10.23754535898452</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.18430605518867</v>
+        <v>24.19921803410353</v>
       </c>
       <c r="C16">
-        <v>10.36469611099208</v>
+        <v>18.60463729588172</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>20.68430258235398</v>
+        <v>15.12800268825295</v>
       </c>
       <c r="F16">
-        <v>39.68606515128992</v>
+        <v>37.25201788628751</v>
       </c>
       <c r="G16">
-        <v>30.15216258459393</v>
+        <v>35.52839432076584</v>
       </c>
       <c r="H16">
-        <v>13.9091847403222</v>
+        <v>10.06345411972028</v>
       </c>
       <c r="I16">
-        <v>19.26235715604489</v>
+        <v>13.37184722870734</v>
       </c>
       <c r="J16">
-        <v>7.67604672776335</v>
+        <v>4.199773705667679</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>19.72539986007092</v>
+        <v>20.65011813679751</v>
       </c>
       <c r="N16">
-        <v>16.91118474484379</v>
+        <v>10.39740641328838</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.95812222545018</v>
+        <v>23.68816861976892</v>
       </c>
       <c r="C17">
-        <v>10.16041381044151</v>
+        <v>18.21082964736513</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>20.67010927739535</v>
+        <v>14.95023400932944</v>
       </c>
       <c r="F17">
-        <v>39.60410919514023</v>
+        <v>36.64150766982753</v>
       </c>
       <c r="G17">
-        <v>30.01693776935132</v>
+        <v>34.82875080135001</v>
       </c>
       <c r="H17">
-        <v>13.91548141279504</v>
+        <v>9.97885632217789</v>
       </c>
       <c r="I17">
-        <v>19.28638351468798</v>
+        <v>13.30530003550724</v>
       </c>
       <c r="J17">
-        <v>7.6850324318014</v>
+        <v>4.230652321554961</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>19.63734992438202</v>
+        <v>20.20318622592396</v>
       </c>
       <c r="N17">
-        <v>16.93694798745776</v>
+        <v>10.49596384740738</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.82647870929384</v>
+        <v>23.39000558422208</v>
       </c>
       <c r="C18">
-        <v>10.0409299793639</v>
+        <v>17.98125394100293</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>20.66224841042378</v>
+        <v>14.84795413555041</v>
       </c>
       <c r="F18">
-        <v>39.55798587121732</v>
+        <v>36.29005546635755</v>
       </c>
       <c r="G18">
-        <v>29.94019528102434</v>
+        <v>34.42610561505312</v>
       </c>
       <c r="H18">
-        <v>13.91944835720898</v>
+        <v>9.93131364079437</v>
       </c>
       <c r="I18">
-        <v>19.30075016855831</v>
+        <v>13.26943071673415</v>
       </c>
       <c r="J18">
-        <v>7.690266343636165</v>
+        <v>4.248475860140802</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>19.58686313268712</v>
+        <v>19.94250006590492</v>
       </c>
       <c r="N18">
-        <v>16.95194644420033</v>
+        <v>10.55284178573561</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.78164362429949</v>
+        <v>23.28832430794407</v>
       </c>
       <c r="C19">
-        <v>10.00013342443622</v>
+        <v>17.90299355366952</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>20.65963898675836</v>
+        <v>14.81332035687642</v>
       </c>
       <c r="F19">
-        <v>39.54254472126271</v>
+        <v>36.17101263081351</v>
       </c>
       <c r="G19">
-        <v>29.91439199576761</v>
+        <v>34.28974111736414</v>
       </c>
       <c r="H19">
-        <v>13.92085073104381</v>
+        <v>9.915406439181941</v>
       </c>
       <c r="I19">
-        <v>19.30570827754951</v>
+        <v>13.25769248840765</v>
       </c>
       <c r="J19">
-        <v>7.692049733180749</v>
+        <v>4.254521838559771</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>19.56979759324841</v>
+        <v>19.85361059602957</v>
       </c>
       <c r="N19">
-        <v>16.95705563894768</v>
+        <v>10.57213339362978</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.98236087870636</v>
+        <v>23.74300672694637</v>
       </c>
       <c r="C20">
-        <v>10.18236549283213</v>
+        <v>18.25306792915708</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>20.67158887787182</v>
+        <v>14.96916155429611</v>
       </c>
       <c r="F20">
-        <v>39.61272867565398</v>
+        <v>36.7065299823529</v>
       </c>
       <c r="G20">
-        <v>30.03122615797671</v>
+        <v>34.9032535012106</v>
       </c>
       <c r="H20">
-        <v>13.91477537232814</v>
+        <v>9.987746025839957</v>
       </c>
       <c r="I20">
-        <v>19.28376917457085</v>
+        <v>13.31213336843538</v>
       </c>
       <c r="J20">
-        <v>7.684069105257683</v>
+        <v>4.227358822614512</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>19.64670705833272</v>
+        <v>20.25113701671856</v>
       </c>
       <c r="N20">
-        <v>16.93418681368833</v>
+        <v>10.48545278980141</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.63802661970051</v>
+        <v>25.22050981273997</v>
       </c>
       <c r="C21">
-        <v>10.77093268159735</v>
+        <v>19.39285103131322</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>20.71534576895667</v>
+        <v>15.49225285967299</v>
       </c>
       <c r="F21">
-        <v>39.86059501654938</v>
+        <v>38.50187697545609</v>
       </c>
       <c r="G21">
-        <v>30.43594575409625</v>
+        <v>36.96165850259915</v>
       </c>
       <c r="H21">
-        <v>13.89849271724709</v>
+        <v>10.24425240389509</v>
       </c>
       <c r="I21">
-        <v>19.21661060963981</v>
+        <v>13.52430385630142</v>
       </c>
       <c r="J21">
-        <v>7.658037648353895</v>
+        <v>4.136815316908461</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>19.90688542232003</v>
+        <v>21.54374625914675</v>
       </c>
       <c r="N21">
-        <v>16.85949987881868</v>
+        <v>10.19641406929771</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.05213189821266</v>
+        <v>26.14937209192844</v>
       </c>
       <c r="C22">
-        <v>11.13797648765519</v>
+        <v>20.11118199062233</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>20.74660750482243</v>
+        <v>15.83346660412278</v>
       </c>
       <c r="F22">
-        <v>40.03139769953165</v>
+        <v>39.67176354614191</v>
       </c>
       <c r="G22">
-        <v>30.70907110772034</v>
+        <v>38.30453349683751</v>
       </c>
       <c r="H22">
-        <v>13.89093884935883</v>
+        <v>10.42220774832452</v>
       </c>
       <c r="I22">
-        <v>19.17763586657484</v>
+        <v>13.68589731611857</v>
       </c>
       <c r="J22">
-        <v>7.641605212111813</v>
+        <v>4.078101975799897</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>20.07800890019353</v>
+        <v>22.35708011702057</v>
       </c>
       <c r="N22">
-        <v>16.81228295886792</v>
+        <v>10.00896765258406</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.83246180561841</v>
+        <v>25.65694408645056</v>
       </c>
       <c r="C23">
-        <v>10.94368702625946</v>
+        <v>19.73018990040142</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>20.72968038006026</v>
+        <v>15.65142993426301</v>
       </c>
       <c r="F23">
-        <v>39.93944315513389</v>
+        <v>39.04771634614418</v>
       </c>
       <c r="G23">
-        <v>30.56254021582267</v>
+        <v>37.58803795471483</v>
       </c>
       <c r="H23">
-        <v>13.89468737037344</v>
+        <v>10.32626749170215</v>
       </c>
       <c r="I23">
-        <v>19.19798542580867</v>
+        <v>13.59748335815882</v>
       </c>
       <c r="J23">
-        <v>7.650322543817227</v>
+        <v>4.109401101229184</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>19.98659344143348</v>
+        <v>21.92582695672253</v>
       </c>
       <c r="N23">
-        <v>16.83733796167933</v>
+        <v>10.10888978627889</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.97140758303713</v>
+        <v>23.71822798898138</v>
       </c>
       <c r="C24">
-        <v>10.17244748976969</v>
+        <v>18.23398188508199</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>20.67091901861958</v>
+        <v>14.96060465061621</v>
       </c>
       <c r="F24">
-        <v>39.60882870885379</v>
+        <v>36.67713482276516</v>
       </c>
       <c r="G24">
-        <v>30.02476325567601</v>
+        <v>34.86957210377287</v>
       </c>
       <c r="H24">
-        <v>13.9150934927304</v>
+        <v>9.983723588303384</v>
       </c>
       <c r="I24">
-        <v>19.28494939376904</v>
+        <v>13.30903659253668</v>
       </c>
       <c r="J24">
-        <v>7.684504413601188</v>
+        <v>4.228847591235815</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>19.64247627619285</v>
+        <v>20.22947011916514</v>
       </c>
       <c r="N24">
-        <v>16.9354345582575</v>
+        <v>10.49020416369179</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.9839426928405</v>
+        <v>21.46522712175307</v>
       </c>
       <c r="C25">
-        <v>9.264579247254993</v>
+        <v>16.5024357818378</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>20.61912469962488</v>
+        <v>14.21454685632511</v>
       </c>
       <c r="F25">
-        <v>39.29114386516326</v>
+        <v>34.10955381009595</v>
       </c>
       <c r="G25">
-        <v>29.48457581394294</v>
+        <v>31.92954920237149</v>
       </c>
       <c r="H25">
-        <v>13.95029438193905</v>
+        <v>9.656654475575767</v>
       </c>
       <c r="I25">
-        <v>19.39965220366695</v>
+        <v>13.0889415075331</v>
       </c>
       <c r="J25">
-        <v>7.723884146277543</v>
+        <v>4.360147297800417</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>19.2774871610418</v>
+        <v>18.35604712477186</v>
       </c>
       <c r="N25">
-        <v>17.04813959143857</v>
+        <v>10.90891811268263</v>
       </c>
       <c r="O25">
         <v>0</v>
